--- a/UIPath/230615_FinalWork/Class/Devliverables_RPA1_Template/result/주요환율정보동향조사보고_20230608-20230520.xlsx
+++ b/UIPath/230615_FinalWork/Class/Devliverables_RPA1_Template/result/주요환율정보동향조사보고_20230608-20230520.xlsx
@@ -26,15 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>매매기준율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미국 USD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본 JPY (100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -47,6 +39,14 @@
   </si>
   <si>
     <t>영국 GBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매매기준율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본 JPY (100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,22 +391,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -414,19 +414,19 @@
         <v>45085</v>
       </c>
       <c r="B2" s="2">
-        <v>1308</v>
+        <v>1308.2</v>
       </c>
       <c r="C2">
-        <v>907.23</v>
+        <v>908.5</v>
       </c>
       <c r="D2" s="2">
-        <v>1432.65</v>
+        <v>1424.24</v>
       </c>
       <c r="E2">
-        <v>180.54</v>
+        <v>180.36</v>
       </c>
       <c r="F2" s="2">
-        <v>1663.91</v>
+        <v>1665.6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
